--- a/results/random_clarke_wright/ObjectiveFunctionValues.xlsx
+++ b/results/random_clarke_wright/ObjectiveFunctionValues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atkearney-my.sharepoint.com/personal/gmorae01_atkearney_com/Documents/Documents/Personal/POLI/PNV3512 - 2/pnv3512/outputs/RandomicCWS/20230704-204532/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atkearney-my.sharepoint.com/personal/gmorae01_atkearney_com/Documents/Documents/Personal/POLI/PNV3512 - 2/pnv3512/results/random_clarke_wright/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_1F4641275748D61402FE31D2F8F2D3C294541A9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B13630B-E9D0-4E5F-821F-EDED24B4D419}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_1F4641275748D61402FE31D2F8F2D3C294541A9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AD9EFDF-8DF5-4B28-AA30-396A9EA86558}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,22 +18,37 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$1001</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$A$1001</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$1001</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$2:$B$1001</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$B$1001</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>solution_value</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>med</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -130,7 +145,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{27DDB30F-B2E1-47BB-8EF9-842B027CFBBC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>solution_value</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1106,36 +1121,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1001"/>
+  <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A981" workbookViewId="0">
-      <selection activeCell="F994" sqref="F994"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f>MAX(B2:B1001)</f>
+        <v>1144.4349894340351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>998.87179687941875</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <f>MIN(B2:B1001)</f>
+        <v>960.72759331131101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1082.1472343250839</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B2:B1001)</f>
+        <v>1018.0767841067268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1143,7 +1179,7 @@
         <v>1059.001858248607</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1151,7 +1187,7 @@
         <v>1000.693514344233</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1159,7 +1195,7 @@
         <v>1061.3210468260061</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1167,7 +1203,7 @@
         <v>1000.693514344233</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1175,7 +1211,7 @@
         <v>1003.1744103044369</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1183,7 +1219,7 @@
         <v>982.48362606930823</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1191,7 +1227,7 @@
         <v>1121.437278342388</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1199,7 +1235,7 @@
         <v>998.87179687941875</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1207,7 +1243,7 @@
         <v>1128.79893279269</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1215,7 +1251,7 @@
         <v>982.48362606930823</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1223,7 +1259,7 @@
         <v>982.48362606930823</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1231,7 +1267,7 @@
         <v>982.48362606930823</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
